--- a/src/main/resources/excelModel/Order订单数据导出.xlsx
+++ b/src/main/resources/excelModel/Order订单数据导出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -23,31 +23,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>制作饮品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>出货情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作设备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Order订单数据导出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出杯类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联优惠券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,23 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
-    <col min="2" max="8" width="30" style="2" customWidth="1"/>
-    <col min="9" max="16372" width="10.625" style="3" customWidth="1"/>
-    <col min="16373" max="16384" width="10.625" style="3"/>
+    <col min="2" max="17" width="30" style="2" customWidth="1"/>
+    <col min="18" max="16381" width="10.625" style="3" customWidth="1"/>
+    <col min="16382" max="16384" width="10.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="65.099999999999994" customHeight="1">
+    <row r="1" spans="1:17" ht="65.099999999999994" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -512,8 +551,17 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -521,25 +569,52 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
@@ -548,8 +623,17 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -558,8 +642,17 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -568,8 +661,17 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -578,8 +680,17 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -588,8 +699,17 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -598,8 +718,17 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -608,8 +737,17 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -618,8 +756,17 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -628,8 +775,17 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -638,8 +794,17 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -648,8 +813,17 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -658,8 +832,17 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -668,8 +851,17 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -678,8 +870,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -688,8 +889,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -698,8 +908,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -708,10 +927,19 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
